--- a/results/time_series_results/res_trafo/p_hv_mw.xlsx
+++ b/results/time_series_results/res_trafo/p_hv_mw.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04894653544225414</v>
+        <v>0.04805863608974004</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04668194875138754</v>
+        <v>0.04616921598265344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03830776633153365</v>
+        <v>0.03812670546229602</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03252278046682366</v>
+        <v>0.03235591954050276</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02481701793427382</v>
+        <v>0.02471541860748983</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02387218361813859</v>
+        <v>0.02378218058548964</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02146462820196648</v>
+        <v>0.02138433019083352</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01966686753188085</v>
+        <v>0.01958556474926365</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02306856070689611</v>
+        <v>0.02300084303925365</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02315467654000503</v>
+        <v>0.02309632301425235</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02830502199999207</v>
+        <v>0.02820741875705701</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03168268096785276</v>
+        <v>0.03085950437612661</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03822419032825386</v>
+        <v>0.03691873909093224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.04187647325600763</v>
+        <v>0.03989016906916121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04215591584213496</v>
+        <v>0.03989135217203732</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.04328678536016439</v>
+        <v>0.04085458744023041</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.04648430112415569</v>
+        <v>0.04390842432360842</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04780354297801503</v>
+        <v>0.04550539286183353</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.04237956365069118</v>
+        <v>0.04066208906135849</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03487720309329667</v>
+        <v>0.03373379405167087</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.02963270785063832</v>
+        <v>0.02912484258954706</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03770924838868817</v>
+        <v>0.03725241928635603</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04387198591802777</v>
+        <v>0.04333756365168195</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.04784985229577055</v>
+        <v>0.04728414548524362</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0394087430255482</v>
+        <v>0.03916631683060423</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.03512521325787354</v>
+        <v>0.03506893823461776</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03475024543185457</v>
+        <v>0.03475133971543687</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.02771305956089698</v>
+        <v>0.02767694703742118</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.02012837953002278</v>
+        <v>0.02008730188230046</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.0197265311330157</v>
+        <v>0.01967499658741989</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.0178158549240599</v>
+        <v>0.01776908039095138</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01812755338631356</v>
+        <v>0.01807562632623338</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0214786789089656</v>
+        <v>0.0214454688688519</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.02071334406766268</v>
+        <v>0.02068181010330827</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.02858892488503817</v>
+        <v>0.02853306911462505</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.03289525930258541</v>
+        <v>0.03250632013445098</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.03725351433951252</v>
+        <v>0.03625872509679351</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.03475144964582155</v>
+        <v>0.03350622420568716</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.03742958231740945</v>
+        <v>0.03583018374871683</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.04333074103654189</v>
+        <v>0.04096587426617015</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.0516510298366778</v>
+        <v>0.04914693608251719</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.05070300945824568</v>
+        <v>0.04934095116074577</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.0465172444130032</v>
+        <v>0.04486927952743025</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.04096093697715475</v>
+        <v>0.04028200192038167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.04211339108711309</v>
+        <v>0.04133972372108607</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.03693686265943841</v>
+        <v>0.0365078922227362</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.040931925496969</v>
+        <v>0.04036773417954764</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.04277162797591161</v>
+        <v>0.04226477187937694</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.03407769506617353</v>
+        <v>0.03387820499750682</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.03552048193209023</v>
+        <v>0.03541047129090802</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.03381632914969512</v>
+        <v>0.03375134430510784</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.03055037337561706</v>
+        <v>0.03047962853913355</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.02556975654887095</v>
+        <v>0.02553043068211802</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.02499282470591069</v>
+        <v>0.02493070572061051</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0208051496764583</v>
+        <v>0.0207539005441093</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01858231855837689</v>
+        <v>0.01853178710280157</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.02089604126766287</v>
+        <v>0.02084928514969064</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.02070419535004098</v>
+        <v>0.02067718811981201</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.03197666891025419</v>
+        <v>0.03177870253830994</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.03420990952711356</v>
+        <v>0.03351674064108801</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.03590990169951958</v>
+        <v>0.03472987628611757</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.03294029209483196</v>
+        <v>0.03079821096472002</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.03381257495127488</v>
+        <v>0.03180859710260064</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.03702153954203935</v>
+        <v>0.03496175777502664</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.04708046355628992</v>
+        <v>0.04489127948037541</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.04847892441374613</v>
+        <v>0.04734249489549158</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.04128544707266524</v>
+        <v>0.03981676547962154</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.03790602562173429</v>
+        <v>0.03700398394007531</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0317879350214626</v>
+        <v>0.03147190326896476</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0293323188508019</v>
+        <v>0.0292585589719645</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.02994960248369938</v>
+        <v>0.02988961010044111</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.03630156179056476</v>
+        <v>0.03627094136151343</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.03191776632178434</v>
+        <v>0.03188372564627651</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.03002981994411691</v>
+        <v>0.03002766772966825</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.02938972332046552</v>
+        <v>0.02937456804259064</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.02503395829834343</v>
+        <v>0.02499307147917429</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.02280022452522112</v>
+        <v>0.02275153665120977</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02208503501833048</v>
+        <v>0.02203784598493452</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.02076814534856497</v>
+        <v>0.02071237596492725</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.02164395318157442</v>
+        <v>0.02160381938195999</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.02162653529337388</v>
+        <v>0.02159766598792257</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.02119086713784879</v>
+        <v>0.02115825633889856</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02633850997097109</v>
+        <v>0.02632243662481493</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02755085943853153</v>
+        <v>0.02685693036023984</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02557107250734991</v>
+        <v>0.02452189080603773</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02345752073625906</v>
+        <v>0.02243381537561906</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.02799940228651976</v>
+        <v>0.02637834831914887</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.03756198950889711</v>
+        <v>0.03625502938419556</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.04169733281180854</v>
+        <v>0.04086450196766112</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.04021764240559744</v>
+        <v>0.04020304445047485</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.03383357728804837</v>
+        <v>0.0337799403490886</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.03433806708673048</v>
+        <v>0.03424642392607846</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0369641975353221</v>
+        <v>0.03677283768980355</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.04027440650571612</v>
+        <v>0.03993231916784756</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.04114630432504485</v>
+        <v>0.04088239056157561</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.04090483095375452</v>
+        <v>0.04057720639418017</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.04404397548444772</v>
+        <v>0.04365157897377014</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.03839722743759899</v>
+        <v>0.03827470016868317</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.0364957953329007</v>
+        <v>0.03646067972485489</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.02962095199732329</v>
+        <v>0.02954744212059535</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.02801857049824019</v>
+        <v>0.02795938717573154</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.02548818706650169</v>
+        <v>0.02542213779262392</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.02334519195772289</v>
+        <v>0.02327198054692314</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01997341749172266</v>
+        <v>0.01991323500703102</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.0223392827779636</v>
+        <v>0.02228690655861698</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.02349230962880378</v>
+        <v>0.02343596289152239</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.02881806942915122</v>
+        <v>0.02875877649708181</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.02720789361165321</v>
+        <v>0.0262473671548491</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.02892319079436734</v>
+        <v>0.02824682940252288</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.02670507361441121</v>
+        <v>0.02534697306614808</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.03709580812699187</v>
+        <v>0.03509448080206146</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.03794349525171092</v>
+        <v>0.03582819038525276</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.04197489069571603</v>
+        <v>0.04044717901199524</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.04149229764635076</v>
+        <v>0.03968945910090138</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.04338166306682412</v>
+        <v>0.04158052336161944</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.04921510546433983</v>
+        <v>0.04788608079703038</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0495092531873792</v>
+        <v>0.0481756238258203</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.05138227625633662</v>
+        <v>0.05035682971709887</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.05120361988146171</v>
+        <v>0.05030994147320167</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.0512512924830526</v>
+        <v>0.05043081359164747</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.04289457713095679</v>
+        <v>0.04255310097627796</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.03865102785541863</v>
+        <v>0.03852176916003325</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.03404647955924966</v>
+        <v>0.0340034686292352</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.02956718315389606</v>
+        <v>0.02954578326678658</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.02746332188957534</v>
+        <v>0.02742658678585119</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.02594497310287935</v>
+        <v>0.02591025665300395</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.02340744689818897</v>
+        <v>0.02336373947336068</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.02201438263418787</v>
+        <v>0.02197428203932972</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.02343204162540236</v>
+        <v>0.02339730082495683</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.02472062291942423</v>
+        <v>0.0246985522066403</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.03384483570855934</v>
+        <v>0.03370888849802911</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.03117868174240712</v>
+        <v>0.0302373015590347</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.04183345829783336</v>
+        <v>0.04030210632707365</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.04067809910006726</v>
+        <v>0.0388122266162767</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.04615635396861417</v>
+        <v>0.04384556678859453</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.04991310800669835</v>
+        <v>0.04722290418774033</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.05424351014659134</v>
+        <v>0.05164786646336683</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.05851154378921053</v>
+        <v>0.05610669412235347</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.04666341534130758</v>
+        <v>0.04494358599153025</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.04752538781201676</v>
+        <v>0.04625537248187928</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.04932090577594184</v>
+        <v>0.04811401110665647</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.05780580871484575</v>
+        <v>0.05651399329915807</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.05752349322198791</v>
+        <v>0.05637888015214532</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.05709187097377877</v>
+        <v>0.05589021062848476</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.05267046225037975</v>
+        <v>0.05184764148296561</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.04642137313833439</v>
+        <v>0.04603030023857391</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.04266635336534297</v>
+        <v>0.04249614785340705</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.03063211807950827</v>
+        <v>0.03052849149906078</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.02890516053544456</v>
+        <v>0.028815136031618</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.02464167862904132</v>
+        <v>0.02459345065958463</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.02273546008485938</v>
+        <v>0.02268370259511621</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.02059654388142962</v>
+        <v>0.02055168788918948</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.02286903598954027</v>
+        <v>0.02282673396925683</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.02334672485862921</v>
+        <v>0.02332068699444334</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.0319515416934778</v>
+        <v>0.03176998072752635</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.03560277938514056</v>
+        <v>0.03478026130194167</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.0375780050160478</v>
+        <v>0.03674747693785896</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.03648063825384629</v>
+        <v>0.0355595520367763</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.0370843472000385</v>
+        <v>0.03572797197767308</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.03807421960576363</v>
+        <v>0.03617313123907762</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.04608043835079001</v>
+        <v>0.04497501997020137</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.04888205204316287</v>
+        <v>0.04802882398490904</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.04053651277518322</v>
+        <v>0.03983803223268456</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.04181584332217914</v>
+        <v>0.04154514768925355</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.04550423905345058</v>
+        <v>0.04478600587014991</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.05274005490161382</v>
+        <v>0.05154027740267653</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.05064954466793192</v>
+        <v>0.04953689950660145</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.05380484113538475</v>
+        <v>0.0528137703706506</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.04876978600833348</v>
+        <v>0.04800634887879718</v>
       </c>
     </row>
   </sheetData>

--- a/results/time_series_results/res_trafo/p_hv_mw.xlsx
+++ b/results/time_series_results/res_trafo/p_hv_mw.xlsx
@@ -366,1367 +366,1613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04805863608974004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.04178057697459625</v>
+      </c>
+      <c r="C2">
+        <v>0.05591959974232696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04616921598265344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.04073914233456488</v>
+      </c>
+      <c r="C3">
+        <v>0.0491566945570806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03812670546229602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.04059769214167641</v>
+      </c>
+      <c r="C4">
+        <v>0.05028153813840974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03235591954050276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.03898461336851566</v>
+      </c>
+      <c r="C5">
+        <v>0.05168341765918982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02471541860748983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.04078730244499518</v>
+      </c>
+      <c r="C6">
+        <v>0.04634040943480888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02378218058548964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.03851217329300782</v>
+      </c>
+      <c r="C7">
+        <v>0.04665313971418583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02138433019083352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.0403418695258364</v>
+      </c>
+      <c r="C8">
+        <v>0.04825523043205737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01958556474926365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.03973392943153709</v>
+      </c>
+      <c r="C9">
+        <v>0.04461243540649951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02300084303925365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.05133613462373798</v>
+      </c>
+      <c r="C10">
+        <v>0.03342630654625978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02309632301425235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.05723716295354642</v>
+      </c>
+      <c r="C11">
+        <v>0.04045964890884746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02820741875705701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.05799363659654544</v>
+      </c>
+      <c r="C12">
+        <v>0.0524237031680318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03085950437612661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.05565742373137894</v>
+      </c>
+      <c r="C13">
+        <v>0.05716139445126001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03691873909093224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.07205127397633682</v>
+      </c>
+      <c r="C14">
+        <v>0.0507073108539432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03989016906916121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.1098387107155201</v>
+      </c>
+      <c r="C15">
+        <v>0.04928932172265321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03989135217203732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.108584750084479</v>
+      </c>
+      <c r="C16">
+        <v>0.05290896023019787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.04085458744023041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.1108716344138543</v>
+      </c>
+      <c r="C17">
+        <v>0.05378225347384269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.04390842432360842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.1045276286858674</v>
+      </c>
+      <c r="C18">
+        <v>0.05541589376783895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04550539286183353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.08923386527605714</v>
+      </c>
+      <c r="C19">
+        <v>0.05347468918019083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.04066208906135849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.07609661187645145</v>
+      </c>
+      <c r="C20">
+        <v>0.05396007815010928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03373379405167087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.06428186060940488</v>
+      </c>
+      <c r="C21">
+        <v>0.0491709068400541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.02912484258954706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.06391989739498438</v>
+      </c>
+      <c r="C22">
+        <v>0.05433151668472003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03725241928635603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.0632291157900764</v>
+      </c>
+      <c r="C23">
+        <v>0.07689342145162048</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.04333756365168195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.04849526315693486</v>
+      </c>
+      <c r="C24">
+        <v>0.07619307064469083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.04728414548524362</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.0394360373865501</v>
+      </c>
+      <c r="C25">
+        <v>0.06782929612468092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.03916631683060423</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.04171738825819649</v>
+      </c>
+      <c r="C26">
+        <v>0.06178467036788571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.03506893823461776</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.04125385715108365</v>
+      </c>
+      <c r="C27">
+        <v>0.05416100940646407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.03475133971543687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.04068198826961211</v>
+      </c>
+      <c r="C28">
+        <v>0.0538582593655228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.02767694703742118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.04041713989685292</v>
+      </c>
+      <c r="C29">
+        <v>0.05132677796537732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.02008730188230046</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.04060073000195841</v>
+      </c>
+      <c r="C30">
+        <v>0.04833524056590832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01967499658741989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.03925247203751159</v>
+      </c>
+      <c r="C31">
+        <v>0.04964454100464522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01776908039095138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.04223522619476006</v>
+      </c>
+      <c r="C32">
+        <v>0.04664966385148472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01807562632623338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.04163912487873844</v>
+      </c>
+      <c r="C33">
+        <v>0.04538915258111931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.0214454688688519</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.05360203734964353</v>
+      </c>
+      <c r="C34">
+        <v>0.03431813379921667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.02068181010330827</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.06265282863904575</v>
+      </c>
+      <c r="C35">
+        <v>0.03673175599919554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.02853306911462505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.06146151724818116</v>
+      </c>
+      <c r="C36">
+        <v>0.04706718042204572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.03250632013445098</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.05961292297825471</v>
+      </c>
+      <c r="C37">
+        <v>0.04983875489188294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.03625872509679351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.07157147157870014</v>
+      </c>
+      <c r="C38">
+        <v>0.040029180567142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.03350622420568716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.1023143640060922</v>
+      </c>
+      <c r="C39">
+        <v>0.0337474930762085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.03583018374871683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.1165683970588192</v>
+      </c>
+      <c r="C40">
+        <v>0.0496462613402272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.04096587426617015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.1045391710124477</v>
+      </c>
+      <c r="C41">
+        <v>0.05583183227656641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.04914693608251719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.1060237007496609</v>
+      </c>
+      <c r="C42">
+        <v>0.05454640107320741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.04934095116074577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.08528290720280918</v>
+      </c>
+      <c r="C43">
+        <v>0.06607485622802689</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.04486927952743025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.070069809621506</v>
+      </c>
+      <c r="C44">
+        <v>0.07313723286962881</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.04028200192038167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.06474348596435808</v>
+      </c>
+      <c r="C45">
+        <v>0.0524662696213114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.04133972372108607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.06487623373563833</v>
+      </c>
+      <c r="C46">
+        <v>0.06977698472099481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0365078922227362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.06520515352439293</v>
+      </c>
+      <c r="C47">
+        <v>0.08540217395108063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.04036773417954764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.0465526798555751</v>
+      </c>
+      <c r="C48">
+        <v>0.08630258207463559</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.04226477187937694</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.03985433239607428</v>
+      </c>
+      <c r="C49">
+        <v>0.07635788449514047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.03387820499750682</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.04194313660819615</v>
+      </c>
+      <c r="C50">
+        <v>0.05879538051967981</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.03541047129090802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.04185282894817544</v>
+      </c>
+      <c r="C51">
+        <v>0.05399023656750901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.03375134430510784</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.04304488915621052</v>
+      </c>
+      <c r="C52">
+        <v>0.05932503823775803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.03047962853913355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.03993558032782962</v>
+      </c>
+      <c r="C53">
+        <v>0.05770800377314889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.02553043068211802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.04042011694264858</v>
+      </c>
+      <c r="C54">
+        <v>0.05412707324876453</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.02493070572061051</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.03945104900499574</v>
+      </c>
+      <c r="C55">
+        <v>0.0539333697012202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.0207539005441093</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.04046826947719451</v>
+      </c>
+      <c r="C56">
+        <v>0.05150352629842925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.01853178710280157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.03936978250809942</v>
+      </c>
+      <c r="C57">
+        <v>0.04291018819551007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.02084928514969064</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.04486639642388024</v>
+      </c>
+      <c r="C58">
+        <v>0.03715785389484161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.02067718811981201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.05639633597722726</v>
+      </c>
+      <c r="C59">
+        <v>0.03894931073087049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.03177870253830994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.06148681984742632</v>
+      </c>
+      <c r="C60">
+        <v>0.0414794126097906</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.03351674064108801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.06657478111875959</v>
+      </c>
+      <c r="C61">
+        <v>0.04922338238373536</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.03472987628611757</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.08593798671029784</v>
+      </c>
+      <c r="C62">
+        <v>0.04600043322370639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.03079821096472002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.09462655883762139</v>
+      </c>
+      <c r="C63">
+        <v>0.03728721996990769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.03180859710260064</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.1162015394345182</v>
+      </c>
+      <c r="C64">
+        <v>0.04056747977639197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.03496175777502664</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.1083406344214772</v>
+      </c>
+      <c r="C65">
+        <v>0.05343945414452578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.04489127948037541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.1027579592184131</v>
+      </c>
+      <c r="C66">
+        <v>0.04827958554412781</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.04734249489549158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.07918908012589432</v>
+      </c>
+      <c r="C67">
+        <v>0.05850247806382924</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.03981676547962154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.06505519245748204</v>
+      </c>
+      <c r="C68">
+        <v>0.07440844722775586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.03700398394007531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.06394493626778042</v>
+      </c>
+      <c r="C69">
+        <v>0.07487718528038712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.03147190326896476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.06088637320246093</v>
+      </c>
+      <c r="C70">
+        <v>0.08847549946588218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0292585589719645</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.06246040210272019</v>
+      </c>
+      <c r="C71">
+        <v>0.09874906123465121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.02988961010044111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.04962793944259802</v>
+      </c>
+      <c r="C72">
+        <v>0.08773862765438323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.03627094136151343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03966772160542797</v>
+      </c>
+      <c r="C73">
+        <v>0.0767124136330195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.03188372564627651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.04091370647956349</v>
+      </c>
+      <c r="C74">
+        <v>0.05883575125970775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.03002766772966825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.04165414821603619</v>
+      </c>
+      <c r="C75">
+        <v>0.05260717637085455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.02937456804259064</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.04132003306907217</v>
+      </c>
+      <c r="C76">
+        <v>0.05408413622014463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.02499307147917429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.04037795740430017</v>
+      </c>
+      <c r="C77">
+        <v>0.05596625477973127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.02275153665120977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.04065184016745516</v>
+      </c>
+      <c r="C78">
+        <v>0.04732982507650951</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02203784598493452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03769065929818893</v>
+      </c>
+      <c r="C79">
+        <v>0.04790858701437528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.02071237596492725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.03929752560780475</v>
+      </c>
+      <c r="C80">
+        <v>0.04587991449831497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.02160381938195999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.03817508253945645</v>
+      </c>
+      <c r="C81">
+        <v>0.04373914632506715</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.02159766598792257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.06038540729850617</v>
+      </c>
+      <c r="C82">
+        <v>0.03587224342887319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.02115825633889856</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.06585187918373192</v>
+      </c>
+      <c r="C83">
+        <v>0.04442733438279522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02632243662481493</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.06446286155943026</v>
+      </c>
+      <c r="C84">
+        <v>0.04366981201135134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02685693036023984</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.071905213316247</v>
+      </c>
+      <c r="C85">
+        <v>0.05334943281657034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02452189080603773</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.08405217372462825</v>
+      </c>
+      <c r="C86">
+        <v>0.05983252596220923</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02243381537561906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.1170504259332446</v>
+      </c>
+      <c r="C87">
+        <v>0.06253124317462877</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.02637834831914887</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.1085966451321188</v>
+      </c>
+      <c r="C88">
+        <v>0.06402633630076093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.03625502938419556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.1026864686101101</v>
+      </c>
+      <c r="C89">
+        <v>0.05757498584633414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.04086450196766112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.1041795386021951</v>
+      </c>
+      <c r="C90">
+        <v>0.05197791598883827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.04020304445047485</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.09248539287487745</v>
+      </c>
+      <c r="C91">
+        <v>0.05318944159063055</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.0337799403490886</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.07724175574364001</v>
+      </c>
+      <c r="C92">
+        <v>0.06281718751935739</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.03424642392607846</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.07033266275926708</v>
+      </c>
+      <c r="C93">
+        <v>0.06716350375739522</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.03677283768980355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.07311936492441706</v>
+      </c>
+      <c r="C94">
+        <v>0.07786446912358058</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.03993231916784756</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.06723306707977494</v>
+      </c>
+      <c r="C95">
+        <v>0.07712103470916476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.04088239056157561</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>0.0697531755902987</v>
+      </c>
+      <c r="C96">
+        <v>0.0737263104365411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.04057720639418017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.07729013138668872</v>
+      </c>
+      <c r="C97">
+        <v>0.06525987250607579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.04365157897377014</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.06820170153031535</v>
+      </c>
+      <c r="C98">
+        <v>0.05512252177904353</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.03827470016868317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.06139539994202359</v>
+      </c>
+      <c r="C99">
+        <v>0.05841298539672557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.03646067972485489</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>0.04811580094814882</v>
+      </c>
+      <c r="C100">
+        <v>0.05330476823889385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.02954744212059535</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.04070301766460283</v>
+      </c>
+      <c r="C101">
+        <v>0.05383525648930554</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.02795938717573154</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>0.04076020316017503</v>
+      </c>
+      <c r="C102">
+        <v>0.0553965222466335</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.02542213779262392</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>0.03932463665005903</v>
+      </c>
+      <c r="C103">
+        <v>0.05299691503336779</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.02327198054692314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>0.03929152938596214</v>
+      </c>
+      <c r="C104">
+        <v>0.04985839503489775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.01991323500703102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>0.03859638890800232</v>
+      </c>
+      <c r="C105">
+        <v>0.0431905674759856</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.02228690655861698</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.04892913200168447</v>
+      </c>
+      <c r="C106">
+        <v>0.03967310497447585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.02343596289152239</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.0579914220973845</v>
+      </c>
+      <c r="C107">
+        <v>0.03877281127331811</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.02875877649708181</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>0.06660708789992054</v>
+      </c>
+      <c r="C108">
+        <v>0.04051512758322395</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0262473671548491</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>0.06851235799219291</v>
+      </c>
+      <c r="C109">
+        <v>0.05322549973400326</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.02824682940252288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>0.07494375931140418</v>
+      </c>
+      <c r="C110">
+        <v>0.05606044391002929</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.02534697306614808</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>0.1072065436552934</v>
+      </c>
+      <c r="C111">
+        <v>0.04717688161556099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.03509448080206146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>0.1091538912723999</v>
+      </c>
+      <c r="C112">
+        <v>0.04842358635095922</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.03582819038525276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>0.1042331257357616</v>
+      </c>
+      <c r="C113">
+        <v>0.05955505833697672</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.04044717901199524</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>0.1081132333139876</v>
+      </c>
+      <c r="C114">
+        <v>0.05301666081170575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.03968945910090138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>0.07830613349628868</v>
+      </c>
+      <c r="C115">
+        <v>0.05452301535452697</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.04158052336161944</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>0.07943498015524675</v>
+      </c>
+      <c r="C116">
+        <v>0.05962966226395094</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.04788608079703038</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>0.0765471268980229</v>
+      </c>
+      <c r="C117">
+        <v>0.06867186626859112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.0481756238258203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>0.06730983132453705</v>
+      </c>
+      <c r="C118">
+        <v>0.06677362976631485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.05035682971709887</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.06324976094654478</v>
+      </c>
+      <c r="C119">
+        <v>0.064467571209472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.05030994147320167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.06254720781438738</v>
+      </c>
+      <c r="C120">
+        <v>0.06105331952559068</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.05043081359164747</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>0.06751372252901122</v>
+      </c>
+      <c r="C121">
+        <v>0.05701554875085135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.04255310097627796</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.05554802311879747</v>
+      </c>
+      <c r="C122">
+        <v>0.05031301679654476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.03852176916003325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>0.0494516101593665</v>
+      </c>
+      <c r="C123">
+        <v>0.04497882095279282</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.0340034686292352</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>0.03225774124355807</v>
+      </c>
+      <c r="C124">
+        <v>0.04611538256799386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.02954578326678658</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>0.03137053637526455</v>
+      </c>
+      <c r="C125">
+        <v>0.0431502499500882</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.02742658678585119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>0.03093449294961292</v>
+      </c>
+      <c r="C126">
+        <v>0.03981759199820301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.02591025665300395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>0.03116003586483718</v>
+      </c>
+      <c r="C127">
+        <v>0.04175850740831843</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.02336373947336068</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>0.030687921289696</v>
+      </c>
+      <c r="C128">
+        <v>0.04156805435460775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.02197428203932972</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>0.03109387468607272</v>
+      </c>
+      <c r="C129">
+        <v>0.03630827617818155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.02339730082495683</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>0.04414775528636294</v>
+      </c>
+      <c r="C130">
+        <v>0.03318888221064109</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.0246985522066403</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>0.04842730056652567</v>
+      </c>
+      <c r="C131">
+        <v>0.03472779731861464</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.03370888849802911</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>0.05409802834286026</v>
+      </c>
+      <c r="C132">
+        <v>0.0363664051251712</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.0302373015590347</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>0.05749741803952668</v>
+      </c>
+      <c r="C133">
+        <v>0.03954648677602501</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.04030210632707365</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>0.08831866515723918</v>
+      </c>
+      <c r="C134">
+        <v>0.03918802272264454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.0388122266162767</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>0.1205344011019593</v>
+      </c>
+      <c r="C135">
+        <v>0.03379706147630501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.04384556678859453</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>0.1143987849198185</v>
+      </c>
+      <c r="C136">
+        <v>0.05243242446552943</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.04722290418774033</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>0.1103024197370286</v>
+      </c>
+      <c r="C137">
+        <v>0.06940832409671205</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.05164786646336683</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>0.1070961225070555</v>
+      </c>
+      <c r="C138">
+        <v>0.05899895023952728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.05610669412235347</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>0.07649737192990402</v>
+      </c>
+      <c r="C139">
+        <v>0.04909528599962554</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.04494358599153025</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>0.06815674720379539</v>
+      </c>
+      <c r="C140">
+        <v>0.04953215112890574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.04625537248187928</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>0.0641558637872861</v>
+      </c>
+      <c r="C141">
+        <v>0.05054607809450651</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.04811401110665647</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>0.06928281787206059</v>
+      </c>
+      <c r="C142">
+        <v>0.059301430887305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.05651399329915807</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>0.06815978312546855</v>
+      </c>
+      <c r="C143">
+        <v>0.06451386258622083</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.05637888015214532</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>0.06788538055865567</v>
+      </c>
+      <c r="C144">
+        <v>0.06937577242871107</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.05589021062848476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.07389595072964639</v>
+      </c>
+      <c r="C145">
+        <v>0.06458013542684782</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.05184764148296561</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>0.04603030023857391</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>0.04249614785340705</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>0.03052849149906078</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>0.028815136031618</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>0.02459345065958463</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>0.02268370259511621</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>0.02055168788918948</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>0.02282673396925683</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>0.02332068699444334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>0.03176998072752635</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>0.03478026130194167</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>0.03674747693785896</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>0.0355595520367763</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>0.03572797197767308</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>0.03617313123907762</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>0.04497501997020137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>0.04802882398490904</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>0.03983803223268456</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>0.04154514768925355</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>0.04478600587014991</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>0.05154027740267653</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>0.04953689950660145</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>0.0528137703706506</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>0.04800634887879718</v>
+        <v>0.06594798044615713</v>
+      </c>
+      <c r="C146">
+        <v>0.06034020145764973</v>
       </c>
     </row>
   </sheetData>
